--- a/Schedules/IT_course_schedule.xlsx
+++ b/Schedules/IT_course_schedule.xlsx
@@ -477,9 +477,9 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>1
-EG-202-01807-McInnis
-EG-202-01806-Mohamed Ali
-EG-202-01806-Mohamed Ali</t>
+EG-202-01807-McInnisIDE-318
+EG-202-01806-Mohamed AliIDE-206A
+EG-202-01806-Mohamed AliIDE-206B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,17 +490,17 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>1
-CS-219-01805-MacKay
-CS-219-01805-MacKay
-EG-202-01807-McInnis
-EG-202-01806-Mohamed Ali
-EG-202-01806-Mohamed Ali</t>
+CS-219-01805-MacKayIDE-107A
+CS-219-01805-MacKayIDE-107B
+EG-202-01807-McInnisIDE-318
+EG-202-01806-Mohamed AliIDE-206A
+EG-202-01806-Mohamed AliIDE-206B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>13
-AV-300-13804-Wyman</t>
+AV-300-13804-WymanEAX-010</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,66 +521,66 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>3
-AV-410-03809-Balch
-CM-200-03811-Mohamed Ali
-CS-413-03810-Kim
-EG-350-03807-McInnis
-EG-350-03807-McInnis
-EG-318-03805-Guo
-EG-208-03804-nan
-EG-208-03804-nan</t>
+AV-410-03809-BalchEAX-011
+CM-200-03811-Mohamed AliIDE-318
+CS-413-03810-KimIDE-113A
+EG-350-03807-McInnisIDE-206A
+EG-350-03807-McInnisIDE-206B
+EG-318-03805-GuoIDE-323
+EG-208-03804-nanIDE-214
+EG-208-03804-nanIDE-217A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>4
-AV-306-04805-Breuder
-CM-375-04808-Regnery
-IT-212-04009-Gilmartin
-CS-312-04815-Bancroft
-CS-219-04814-nan
-CS-219-04814-nan
-CS-217-04809-nan
-EG-310-04813-Guo
-EG-209-04812-Beltramo
-EG-209-04812-Beltramo</t>
+AV-306-04805-BreuderEAX-009
+CM-375-04808-RegneryEAX-017
+IT-212-04009-GilmartinIDE-128A
+CS-312-04815-BancroftIDE-317
+CS-219-04814-nanIDE-118A
+CS-219-04814-nanIDE-118B
+CS-217-04809-nannan-nan
+EG-310-04813-GuoIDE-113A
+EG-209-04812-BeltramoIDE-107A
+EG-209-04812-BeltramoIDE-107B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>3
-AV-410-03809-Balch
-CM-200-03811-Mohamed Ali
-CS-413-03810-Kim
-EG-350-03807-McInnis
-EG-350-03807-McInnis
-EG-318-03805-Guo
-EG-208-03804-nan
-EG-208-03804-nan</t>
+AV-410-03809-BalchEAX-011
+CM-200-03811-Mohamed AliIDE-318
+CS-413-03810-KimIDE-113A
+EG-350-03807-McInnisIDE-206A
+EG-350-03807-McInnisIDE-206B
+EG-318-03805-GuoIDE-323
+EG-208-03804-nanIDE-214
+EG-208-03804-nanIDE-217A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>14
-AT-410-14801-Wyman
-EG-498-14808-Rosner
-EG-498-14807-Moghimi
-EG-498-14806-Daigneau</t>
+AT-410-14801-WymanEAX-012
+EG-498-14808-RosnerIDE-113A
+EG-498-14807-MoghimiIDE-128B
+EG-498-14806-DaigneauIDE-128A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>4.0
-AV-306-04805-Breuder
-CM-375-04808-Regnery
-IT-212-04009-Gilmartin
-CS-312-04815-Bancroft
-CS-219-04814-nan
-CS-219-04814-nan
-CS-217-04809-nan
-EG-310-04813-Guo
-EG-209-04812-Beltramo
-EG-209-04812-Beltramo</t>
+AV-306-04805-BreuderEAX-009
+CM-375-04808-RegneryEAX-017
+IT-212-04009-GilmartinIDE-128A
+CS-312-04815-BancroftIDE-317
+CS-219-04814-nanIDE-118A
+CS-219-04814-nanIDE-118B
+CS-217-04809-nannan-nan
+EG-310-04813-GuoIDE-113A
+EG-209-04812-BeltramoIDE-107A
+EG-209-04812-BeltramoIDE-107B</t>
         </is>
       </c>
     </row>
@@ -596,89 +596,89 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>5
-AM-201-05816-Balch
-CM-320-05815-nan
-CM-320-05815-nan
-IT-140-05007-Banae
-IT-423-05008-Fireheart
-CS-217-05812-nan
-CS-328-05807-nan
-CS-328-05807-nan
-EG-412-05809-Sadraey
-EE-318-05808-Moghimi
-EE-318-05808-Moghimi
-EG-325-05814-Gorczyca
-EG-325-05814-Gorczyca
-EG-207-05811-Daigneau</t>
+AM-201-05816-BalchEAX-011
+CM-320-05815-nanEAX-015
+CM-320-05815-nanEAX-016
+IT-140-05007-BanaeIDE-128A
+IT-423-05008-FireheartIDE-204A
+CS-217-05812-nanIDE-104A
+CS-328-05807-nanIDE-118A
+CS-328-05807-nanIDE-118B
+EG-412-05809-SadraeyIDE-317
+EE-318-05808-MoghimiIDE-206A
+EE-318-05808-MoghimiIDE-206B
+EG-325-05814-GorczycaIDE-107A
+EG-325-05814-GorczycaIDE-107B
+EG-207-05811-DaigneauIDE-217A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>13
-AV-300-13804-Wyman
-CSM-225-13810-Trottier
-CSM-199-13805-nan
-CSM-199-13805-nan
-CS-113-13850-Kim
-CS-113-13851-nan
-CS-113-13852-nan
-EG-419FT-13809-Rosner
-EE-318L-13806-Moghimi
-EE-318L-13806-Moghimi</t>
+AV-300-13804-WymanEAX-010
+CSM-225-13810-TrottierEAX-017
+CSM-199-13805-nanEAX-015
+CSM-199-13805-nanEAX-016
+CS-113-13850-KimIDE-104A
+CS-113-13851-nannan-nan
+CS-113-13852-nanIDE-204A
+EG-419FT-13809-RosnerIDE-318
+EE-318L-13806-MoghimiIDE-206A
+EE-318L-13806-MoghimiIDE-206B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>6
-CS-113-06853-Kim
-CS-110-06814-Bancroft
-IT-304-06008-Hogan
-CS-114-06856-nan
-CS-217-06800-nan
-CS-113-06855-nan
-EG-424-06807-Guo
-EG-424-06807-Guo
-EG-424-06807-Guo
-EG-360-06811-Sadraey
-EG-361-06810-Sadique
-EG-361-06810-Sadique</t>
+CS-113-06853-KimIDE-113A
+CS-110-06814-BancroftIDE-317
+IT-304-06008-HoganIDE-209
+CS-114-06856-nanIDE-104A
+CS-217-06800-nanIDE-217A
+CS-113-06855-nannan-nan
+EG-424-06807-GuoEAX-019
+EG-424-06807-GuoIDE-107A
+EG-424-06807-GuoIDE-107B
+EG-360-06811-SadraeyIDE-204A
+EG-361-06810-SadiqueIDE-118A
+EG-361-06810-SadiqueIDE-118B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>5
-AM-201-05816-Balch
-AT-410L-05804-Adelizzi
-AT-410L-05804-Adelizzi
-CM-320-05815-nan
-CM-320-05815-nan
-IT-140-05007-Banae
-IT-423-05008-Fireheart
-CS-217-05812-nan
-CS-328-05807-nan
-CS-328-05807-nan
-EG-412-05809-Sadraey
-EE-318-05808-Moghimi
-EE-318-05808-Moghimi
-EG-325-05814-Gorczyca
-EG-325-05814-Gorczyca
-EG-207-05811-Daigneau</t>
+AM-201-05816-BalchEAX-011
+AT-410L-05804-AdelizziEAX-022
+AT-410L-05804-AdelizziEAX-023
+CM-320-05815-nanEAX-015
+CM-320-05815-nanEAX-016
+IT-140-05007-BanaeIDE-128A
+IT-423-05008-FireheartIDE-204A
+CS-217-05812-nanIDE-104A
+CS-328-05807-nanIDE-118A
+CS-328-05807-nanIDE-118B
+EG-412-05809-SadraeyIDE-317
+EE-318-05808-MoghimiIDE-206A
+EE-318-05808-MoghimiIDE-206B
+EG-325-05814-GorczycaIDE-107A
+EG-325-05814-GorczycaIDE-107B
+EG-207-05811-DaigneauIDE-217A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>6.0
-CS-113L-06854-Kim
-CS-110-06814-Bancroft
-IT-304-06008-Hogan
-CS-114L-06857-nan
-CS-217-06800-nan
-EG-424-06807-Guo
-EG-424-06807-Guo
-EG-424-06807-Guo
-EG-360-06811-Sadraey
-EG-361-06810-Sadique
-EG-361-06810-Sadique</t>
+CS-113L-06854-KimIDE-113A
+CS-110-06814-BancroftIDE-317
+IT-304-06008-HoganIDE-209
+CS-114L-06857-nanIDE-104A
+CS-217-06800-nanIDE-217A
+EG-424-06807-GuoEAX-019
+EG-424-06807-GuoIDE-107A
+EG-424-06807-GuoIDE-107B
+EG-360-06811-SadraeyIDE-204A
+EG-361-06810-SadiqueIDE-118A
+EG-361-06810-SadiqueIDE-118B</t>
         </is>
       </c>
     </row>
@@ -694,72 +694,72 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>7
-IT-221-07008-Fireheart
-IT-221-07008-Fireheart
-CS-219-07810-nan
-CS-407-07811-nan
-EG-314-07807-Guo
-EG-314-07807-Guo
-EG-340-07809-nan
-EG-340-07809-nan</t>
+IT-221-07008-FireheartIDE-206A
+IT-221-07008-FireheartIDE-206B
+CS-219-07810-nanIDE-204A
+CS-407-07811-nanIDE-317
+EG-314-07807-GuoIDE-118A
+EG-314-07807-GuoIDE-118B
+EG-340-07809-nanIDE-107A
+EG-340-07809-nanIDE-107B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>14
-AT-410-14801-Wyman
-EG-498-14808-Rosner
-EG-498-14807-Moghimi
-EG-498-14806-Daigneau</t>
+AT-410-14801-WymanEAX-012
+EG-498-14808-RosnerIDE-113A
+EG-498-14807-MoghimiIDE-128B
+EG-498-14806-DaigneauIDE-128A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>8
-AV-205-08815-LaFauci
-IT-140-08008-Fireheart
-CS-110-08816-Bancroft
-CS-231-08807-nan
-EG-419-08810-Rosner
-EG-308-08813-Sadraey
-EG-316-08809-Moghimi
-EG-316-08809-Moghimi
-EG-201-08814-nan
-EG-201-08814-nan
-EG-110-08803-nan
-EG-110-08811-nan</t>
+AV-205-08815-LaFauciIDE-209
+IT-140-08008-FireheartIDE-217A
+CS-110-08816-BancroftIDE-317
+CS-231-08807-nannan-nan
+EG-419-08810-RosnerIDE-318
+EG-308-08813-SadraeyIDE-323
+EG-316-08809-MoghimiIDE-107A
+EG-316-08809-MoghimiIDE-107B
+EG-201-08814-nanIDE-118A
+EG-201-08814-nanIDE-118B
+EG-110-08803-nannan-nan
+EG-110-08811-nannan-nan</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>7
-IT-221-07008-Fireheart
-IT-221-07008-Fireheart
-CS-219-07810-nan
-CS-407-07811-nan
-EG-314-07807-Guo
-EG-314-07807-Guo
-EG-340-07809-nan
-EG-340-07809-nan</t>
+IT-221-07008-FireheartIDE-206A
+IT-221-07008-FireheartIDE-206B
+CS-219-07810-nanIDE-204A
+CS-407-07811-nanIDE-317
+EG-314-07807-GuoIDE-118A
+EG-314-07807-GuoIDE-118B
+EG-340-07809-nanIDE-107A
+EG-340-07809-nanIDE-107B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>8.0
-AV-205-08815-LaFauci
-CS-113L-08850-Kim
-IT-140-08008-Fireheart
-CS-110-08816-Bancroft
-CS-113L-08851-nan
-CS-231-08807-nan
-EG-419-08810-Rosner
-EG-308-08813-Sadraey
-EG-316-08809-Moghimi
-EG-316-08809-Moghimi
-EG-201-08814-nan
-EG-201-08814-nan
-EG-110-08803-nan
-EG-110-08811-nan</t>
+AV-205-08815-LaFauciIDE-209
+CS-113L-08850-KimIDE-104A
+IT-140-08008-FireheartIDE-217A
+CS-110-08816-BancroftIDE-317
+CS-113L-08851-nannan-nan
+CS-231-08807-nannan-nan
+EG-419-08810-RosnerIDE-318
+EG-308-08813-SadraeyIDE-323
+EG-316-08809-MoghimiIDE-107A
+EG-316-08809-MoghimiIDE-107B
+EG-201-08814-nanIDE-118A
+EG-201-08814-nanIDE-118B
+EG-110-08803-nannan-nan
+EG-110-08811-nannan-nan</t>
         </is>
       </c>
     </row>
@@ -775,29 +775,29 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>9
-AM-220-09801-Wyman
-CSM-305-09814-nan
-CSM-305-09814-nan
-CS-203-09803-Datta
-EE-310-09808-Moghimi
-EE-310-09808-Moghimi
-EG-200-09811-Gorczyca
-EG-200-09811-Gorczyca
-EG-207-09813-Daigneau</t>
+AM-220-09801-WymanEAX-009
+CSM-305-09814-nanEAX-015
+CSM-305-09814-nanEAX-016
+CS-203-09803-DattaIDE-113A
+EE-310-09808-MoghimiIDE-206A
+EE-310-09808-MoghimiIDE-206B
+EG-200-09811-GorczycaIDE-118A
+EG-200-09811-GorczycaIDE-118B
+EG-207-09813-DaigneauIDE-217A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>10
-CS-203-10814-Datta
-CS-361-10813-nan
-EG-110-10810-Kolenbrander
-EG-110-10810-Kolenbrander
-EG-110-10809-Eshed
-EG-110-10809-Eshed
-EG-335-10811-Daigneau
-EG-335-10811-Daigneau
-EG-409-10812-nan</t>
+CS-203-10814-DattaIDE-217A
+CS-361-10813-nanIDE-318
+EG-110-10810-KolenbranderIDE-128A
+EG-110-10810-KolenbranderIDE-128B
+EG-110-10809-EshedIDE-128A
+EG-110-10809-EshedIDE-128B
+EG-335-10811-DaigneauIDE-206A
+EG-335-10811-DaigneauIDE-206B
+EG-409-10812-nannan-nan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -808,29 +808,29 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>9
-AM-220-09801-Wyman
-CS-203-09803-Datta
-EE-310-09808-Moghimi
-EE-310-09808-Moghimi
-EG-200-09811-Gorczyca
-EG-200-09811-Gorczyca
-EG-207-09813-Daigneau</t>
+AM-220-09801-WymanEAX-009
+CS-203-09803-DattaIDE-113A
+EE-310-09808-MoghimiIDE-206A
+EE-310-09808-MoghimiIDE-206B
+EG-200-09811-GorczycaIDE-118A
+EG-200-09811-GorczycaIDE-118B
+EG-207-09813-DaigneauIDE-217A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>10.0
-CS-203-10814-Datta
-CS-361-10813-nan
-CS-113L-10852-nan
-CS-113L-10855-nan
-EG-110-10810-Kolenbrander
-EG-110-10810-Kolenbrander
-EG-110-10809-Eshed
-EG-110-10809-Eshed
-EG-335-10811-Daigneau
-EG-335-10811-Daigneau
-EG-409-10812-nan</t>
+CS-203-10814-DattaIDE-217A
+CS-361-10813-nanIDE-318
+CS-113L-10852-nanIDE-204A
+CS-113L-10855-nannan-nan
+EG-110-10810-KolenbranderIDE-128A
+EG-110-10810-KolenbranderIDE-128B
+EG-110-10809-EshedIDE-128A
+EG-110-10809-EshedIDE-128B
+EG-335-10811-DaigneauIDE-206A
+EG-335-10811-DaigneauIDE-206B
+EG-409-10812-nannan-nan</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>11
-IT-313-11003-Veaudry
-CS-231-11811-Datta
-CS-303-11812-Anderson
-EG-203-11813-McInnis
-EG-200-11806-Gorczyca
-EG-200-11806-Gorczyca</t>
+IT-313-11003-VeaudryIDE-217A
+CS-231-11811-DattaIDE-317
+CS-303-11812-AndersonIDE-113A
+EG-203-11813-McInnisIDE-323
+EG-200-11806-GorczycaIDE-118A
+EG-200-11806-GorczycaIDE-118B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -862,35 +862,35 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>12
-AM-340L-12802-Moon
-IT-200-12003-Pollitt
-CS-110-12809-nan
-EG-410-12808-Sadique
-EG-316-12806-nan
-EG-316-12806-nan</t>
+AM-340L-12802-MoonIDE-317
+IT-200-12003-PollittIDE-217A
+CS-110-12809-nanIDE-323
+EG-410-12808-SadiqueIDE-318
+EG-316-12806-nanIDE-118A
+EG-316-12806-nanIDE-118B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>11
-CSM-199-11810-nan
-CSM-199-11810-nan
-IT-313-11003-Veaudry
-CS-231-11811-Datta
-CS-303-11812-Anderson
-EG-203-11813-McInnis
-EG-200-11806-Gorczyca
-EG-200-11806-Gorczyca</t>
+CSM-199-11810-nanEAX-015
+CSM-199-11810-nanEAX-016
+IT-313-11003-VeaudryIDE-217A
+CS-231-11811-DattaIDE-317
+CS-303-11812-AndersonIDE-113A
+EG-203-11813-McInnisIDE-323
+EG-200-11806-GorczycaIDE-118A
+EG-200-11806-GorczycaIDE-118B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>12.0
-IT-200-12003-Pollitt
-CS-110-12809-nan
-EG-410-12808-Sadique
-EG-316-12806-nan
-EG-316-12806-nan</t>
+IT-200-12003-PollittIDE-217A
+CS-110-12809-nanIDE-323
+EG-410-12808-SadiqueIDE-318
+EG-316-12806-nanIDE-118A
+EG-316-12806-nanIDE-118B</t>
         </is>
       </c>
     </row>
@@ -906,43 +906,43 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>20
-CM-410-20802-Robblee
-EE-305-20803-Benzerrouk
-EE-305-20803-Benzerrouk</t>
+CM-410-20802-RobbleeIDE-318
+EE-305-20803-BenzerroukIDE-206A
+EE-305-20803-BenzerroukIDE-206B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>21
-AM-340-21802-Moon
-CSM-300-21804-Michienzi
-CSM-300-21804-Michienzi
-CM-415-21803-Rounds
-CS-231-21809-Saha
-CS-231-21809-Saha
-EG-110-21805-nan
-EG-207-21806-nan</t>
+AM-340-21802-MoonIDE-317
+CSM-300-21804-MichienziEAX-015
+CSM-300-21804-MichienziEAX-016
+CM-415-21803-RoundsIDE-318
+CS-231-21809-SahaIDE-118A
+CS-231-21809-SahaIDE-118B
+EG-110-21805-nanIDE-217A
+EG-207-21806-nanIDE-107B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>20
-CM-400-20801-Robblee
-CSM-220-20806-Michienzi
-CSM-220-20806-Michienzi
-EE-305-20803-Benzerrouk
-EE-305-20803-Benzerrouk</t>
+CM-400-20801-RobbleeIDE-317
+CSM-220-20806-MichienziEAX-015
+CSM-220-20806-MichienziEAX-016
+EE-305-20803-BenzerroukIDE-206A
+EE-305-20803-BenzerroukIDE-206B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>21
-AM-340-21802-Moon
-CM-415-21803-Rounds
-CS-231-21809-Saha
-CS-231-21809-Saha
-EG-110-21805-nan
-EG-207-21806-nan</t>
+AM-340-21802-MoonIDE-317
+CM-415-21803-RoundsIDE-318
+CS-231-21809-SahaIDE-118A
+CS-231-21809-SahaIDE-118B
+EG-110-21805-nanIDE-217A
+EG-207-21806-nanIDE-107B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">

--- a/Schedules/IT_course_schedule.xlsx
+++ b/Schedules/IT_course_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>TIME</t>
   </si>
@@ -58,76 +58,25 @@
     <t>6:30 - 7:45</t>
   </si>
   <si>
-    <t>1
-EG-202-01807-McInnis-IDE-318
-EG-202-01806-Mohamed Ali-IDE-206A
-EG-202-01806-Mohamed Ali-IDE-206B</t>
-  </si>
-  <si>
-    <t>3
-AV-410-03809-Balch-EAX-011
-CM-200-03811-Mohamed Ali-IDE-318
-CS-413-03810-Kim-IDE-113A
-EG-350-03807-McInnis-IDE-206A
-EG-350-03807-McInnis-IDE-206B
-EG-318-03805-Guo-IDE-323
-EG-208-03804-nan-IDE-214
-EG-208-03804-nan-IDE-217A</t>
-  </si>
-  <si>
-    <t>5
-AM-201-05816-Balch-EAX-011
-CM-320-05815-nan-EAX-015
-CM-320-05815-nan-EAX-016
-IT-140-05007-Banae-IDE-128A
-IT-423-05008-Fireheart-IDE-204A
-CS-217-05812-nan-IDE-104A
-CS-328-05807-nan-IDE-118A
-CS-328-05807-nan-IDE-118B
-EG-412-05809-Sadraey-IDE-317
-EE-318-05808-Moghimi-IDE-206A
-EE-318-05808-Moghimi-IDE-206B
-EG-325-05814-Gorczyca-IDE-107A
-EG-325-05814-Gorczyca-IDE-107B
-EG-207-05811-Daigneau-IDE-217A</t>
-  </si>
-  <si>
-    <t>7
-IT-221-07008-Fireheart-IDE-206A
-IT-221-07008-Fireheart-IDE-206B
-CS-219-07810-nan-IDE-204A
-CS-407-07811-nan-IDE-317
-EG-314-07807-Guo-IDE-118A
-EG-314-07807-Guo-IDE-118B
-EG-340-07809-nan-IDE-107A
-EG-340-07809-nan-IDE-107B</t>
-  </si>
-  <si>
-    <t>9
-AM-220-09801-Wyman-EAX-009
-CSM-305-09814-nan-EAX-015
-CSM-305-09814-nan-EAX-016
-CS-203-09803-Datta-IDE-113A
-EE-310-09808-Moghimi-IDE-206A
-EE-310-09808-Moghimi-IDE-206B
-EG-200-09811-Gorczyca-IDE-118A
-EG-200-09811-Gorczyca-IDE-118B
-EG-207-09813-Daigneau-IDE-217A</t>
-  </si>
-  <si>
-    <t>11
-IT-313-11003-Veaudry-IDE-217A
-CS-231-11811-Datta-IDE-317
-CS-303-11812-Anderson-IDE-113A
-EG-203-11813-McInnis-IDE-323
-EG-200-11806-Gorczyca-IDE-118A
-EG-200-11806-Gorczyca-IDE-118B</t>
-  </si>
-  <si>
-    <t>20
-CM-410-20802-Robblee-IDE-318
-EE-305-20803-Benzerrouk-IDE-206A
-EE-305-20803-Benzerrouk-IDE-206B</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>22</t>
@@ -139,63 +88,22 @@
     <t>2</t>
   </si>
   <si>
-    <t>4
-AV-306-04805-Breuder-EAX-009
-CM-375-04808-Regnery-EAX-017
-IT-212-04009-Gilmartin-IDE-128A
-CS-312-04815-Bancroft-IDE-317
-CS-219-04814-nan-IDE-118A
-CS-219-04814-nan-IDE-118B
-CS-217-04809-nan-nan-nan
-EG-310-04813-Guo-IDE-113A
-EG-209-04812-Beltramo-IDE-107A
-EG-209-04812-Beltramo-IDE-107B</t>
-  </si>
-  <si>
-    <t>13
-AV-300-13804-Wyman-EAX-010
-CSM-225-13810-Trottier-EAX-017
-CSM-199-13805-nan-EAX-015
-CSM-199-13805-nan-EAX-016
-CS-113-13850-Kim-IDE-104A
-CS-113-13851-nan-nan-nan
-CS-113-13852-nan-IDE-204A
-EG-419FT-13809-Rosner-IDE-318
-EE-318L-13806-Moghimi-IDE-206A
-EE-318L-13806-Moghimi-IDE-206B</t>
-  </si>
-  <si>
-    <t>14
-AT-410-14801-Wyman-EAX-012
-EG-498-14808-Rosner-IDE-113A
-EG-498-14807-Moghimi-IDE-128B
-EG-498-14806-Daigneau-IDE-128A</t>
-  </si>
-  <si>
-    <t>10
-CS-203-10814-Datta-IDE-217A
-CS-361-10813-nan-IDE-318
-EG-110-10810-Kolenbrander-IDE-128A
-EG-110-10810-Kolenbrander-IDE-128B
-EG-110-10809-Eshed-IDE-128A
-EG-110-10809-Eshed-IDE-128B
-EG-335-10811-Daigneau-IDE-206A
-EG-335-10811-Daigneau-IDE-206B
-EG-409-10812-nan-nan-nan</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>FREE PERIOD</t>
   </si>
   <si>
-    <t>21
-AM-340-21802-Moon-IDE-317
-CSM-300-21804-Michienzi-EAX-015
-CSM-300-21804-Michienzi-EAX-016
-CM-415-21803-Rounds-IDE-318
-CS-231-21809-Saha-IDE-118A
-CS-231-21809-Saha-IDE-118B
-EG-110-21805-nan-IDE-217A
-EG-207-21806-nan-IDE-107B</t>
+    <t>21</t>
   </si>
   <si>
     <t>23</t>
@@ -204,181 +112,31 @@
     <t>25</t>
   </si>
   <si>
-    <t>1
-CS-219-01805-MacKay-IDE-107A
-CS-219-01805-MacKay-IDE-107B
-EG-202-01807-McInnis-IDE-318
-EG-202-01806-Mohamed Ali-IDE-206A
-EG-202-01806-Mohamed Ali-IDE-206B</t>
-  </si>
-  <si>
-    <t>6
-CS-113-06853-Kim-IDE-113A
-CS-110-06814-Bancroft-IDE-317
-IT-304-06008-Hogan-IDE-209
-CS-114-06856-nan-IDE-104A
-CS-217-06800-nan-IDE-217A
-CS-113-06855-nan-nan-nan
-EG-424-06807-Guo-EAX-019
-EG-424-06807-Guo-IDE-107A
-EG-424-06807-Guo-IDE-107B
-EG-360-06811-Sadraey-IDE-204A
-EG-361-06810-Sadique-IDE-118A
-EG-361-06810-Sadique-IDE-118B</t>
-  </si>
-  <si>
-    <t>8
-AV-205-08815-LaFauci-IDE-209
-IT-140-08008-Fireheart-IDE-217A
-CS-110-08816-Bancroft-IDE-317
-CS-231-08807-nan-nan-nan
-EG-419-08810-Rosner-IDE-318
-EG-308-08813-Sadraey-IDE-323
-EG-316-08809-Moghimi-IDE-107A
-EG-316-08809-Moghimi-IDE-107B
-EG-201-08814-nan-IDE-118A
-EG-201-08814-nan-IDE-118B
-EG-110-08803-nan-nan-nan
-EG-110-08811-nan-nan-nan</t>
-  </si>
-  <si>
-    <t>12
-AM-340L-12802-Moon-IDE-317
-IT-200-12003-Pollitt-IDE-217A
-CS-110-12809-nan-IDE-323
-EG-410-12808-Sadique-IDE-318
-EG-316-12806-nan-IDE-118A
-EG-316-12806-nan-IDE-118B</t>
-  </si>
-  <si>
-    <t>20
-CM-400-20801-Robblee-IDE-317
-CSM-220-20806-Michienzi-EAX-015
-CSM-220-20806-Michienzi-EAX-016
-EE-305-20803-Benzerrouk-IDE-206A
-EE-305-20803-Benzerrouk-IDE-206B</t>
-  </si>
-  <si>
-    <t>13
-AV-300-13804-Wyman-EAX-010</t>
-  </si>
-  <si>
-    <t>5
-AM-201-05816-Balch-EAX-011
-AT-410L-05804-Adelizzi-EAX-022
-AT-410L-05804-Adelizzi-EAX-023
-CM-320-05815-nan-EAX-015
-CM-320-05815-nan-EAX-016
-IT-140-05007-Banae-IDE-128A
-IT-423-05008-Fireheart-IDE-204A
-CS-217-05812-nan-IDE-104A
-CS-328-05807-nan-IDE-118A
-CS-328-05807-nan-IDE-118B
-EG-412-05809-Sadraey-IDE-317
-EE-318-05808-Moghimi-IDE-206A
-EE-318-05808-Moghimi-IDE-206B
-EG-325-05814-Gorczyca-IDE-107A
-EG-325-05814-Gorczyca-IDE-107B
-EG-207-05811-Daigneau-IDE-217A</t>
-  </si>
-  <si>
-    <t>9
-AM-220-09801-Wyman-EAX-009
-CS-203-09803-Datta-IDE-113A
-EE-310-09808-Moghimi-IDE-206A
-EE-310-09808-Moghimi-IDE-206B
-EG-200-09811-Gorczyca-IDE-118A
-EG-200-09811-Gorczyca-IDE-118B
-EG-207-09813-Daigneau-IDE-217A</t>
-  </si>
-  <si>
-    <t>11
-CSM-199-11810-nan-EAX-015
-CSM-199-11810-nan-EAX-016
-IT-313-11003-Veaudry-IDE-217A
-CS-231-11811-Datta-IDE-317
-CS-303-11812-Anderson-IDE-113A
-EG-203-11813-McInnis-IDE-323
-EG-200-11806-Gorczyca-IDE-118A
-EG-200-11806-Gorczyca-IDE-118B</t>
-  </si>
-  <si>
-    <t>21
-AM-340-21802-Moon-IDE-317
-CM-415-21803-Rounds-IDE-318
-CS-231-21809-Saha-IDE-118A
-CS-231-21809-Saha-IDE-118B
-EG-110-21805-nan-IDE-217A
-EG-207-21806-nan-IDE-107B</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>4.0
-AV-306-04805-Breuder-EAX-009
-CM-375-04808-Regnery-EAX-017
-IT-212-04009-Gilmartin-IDE-128A
-CS-312-04815-Bancroft-IDE-317
-CS-219-04814-nan-IDE-118A
-CS-219-04814-nan-IDE-118B
-CS-217-04809-nan-nan-nan
-EG-310-04813-Guo-IDE-113A
-EG-209-04812-Beltramo-IDE-107A
-EG-209-04812-Beltramo-IDE-107B</t>
-  </si>
-  <si>
-    <t>6.0
-CS-113L-06854-Kim-IDE-113A
-CS-110-06814-Bancroft-IDE-317
-IT-304-06008-Hogan-IDE-209
-CS-114L-06857-nan-IDE-104A
-CS-217-06800-nan-IDE-217A
-EG-424-06807-Guo-EAX-019
-EG-424-06807-Guo-IDE-107A
-EG-424-06807-Guo-IDE-107B
-EG-360-06811-Sadraey-IDE-204A
-EG-361-06810-Sadique-IDE-118A
-EG-361-06810-Sadique-IDE-118B</t>
-  </si>
-  <si>
-    <t>8.0
-AV-205-08815-LaFauci-IDE-209
-CS-113L-08850-Kim-IDE-104A
-IT-140-08008-Fireheart-IDE-217A
-CS-110-08816-Bancroft-IDE-317
-CS-113L-08851-nan-nan-nan
-CS-231-08807-nan-nan-nan
-EG-419-08810-Rosner-IDE-318
-EG-308-08813-Sadraey-IDE-323
-EG-316-08809-Moghimi-IDE-107A
-EG-316-08809-Moghimi-IDE-107B
-EG-201-08814-nan-IDE-118A
-EG-201-08814-nan-IDE-118B
-EG-110-08803-nan-nan-nan
-EG-110-08811-nan-nan-nan</t>
-  </si>
-  <si>
-    <t>10.0
-CS-203-10814-Datta-IDE-217A
-CS-361-10813-nan-IDE-318
-CS-113L-10852-nan-IDE-204A
-CS-113L-10855-nan-nan-nan
-EG-110-10810-Kolenbrander-IDE-128A
-EG-110-10810-Kolenbrander-IDE-128B
-EG-110-10809-Eshed-IDE-128A
-EG-110-10809-Eshed-IDE-128B
-EG-335-10811-Daigneau-IDE-206A
-EG-335-10811-Daigneau-IDE-206B
-EG-409-10812-nan-nan-nan</t>
-  </si>
-  <si>
-    <t>12.0
-IT-200-12003-Pollitt-IDE-217A
-CS-110-12809-nan-IDE-323
-EG-410-12808-Sadique-IDE-318
-EG-316-12806-nan-IDE-118A
-EG-316-12806-nan-IDE-118B</t>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
   </si>
   <si>
     <t>nan</t>
@@ -776,13 +534,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -802,7 +560,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -816,13 +574,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -836,13 +594,13 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -859,10 +617,10 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -876,13 +634,13 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -896,13 +654,13 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -922,7 +680,7 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -942,7 +700,7 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Schedules/IT_course_schedule.xlsx
+++ b/Schedules/IT_course_schedule.xlsx
@@ -64,16 +64,21 @@
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>5
+IT-140-05007-Banae-IDE-128A
+IT-423-05008-Fireheart-IDE-204A</t>
+  </si>
+  <si>
+    <t>7
+IT-221-07008-Fireheart-IDE-206A
+IT-221-07008-Fireheart-IDE-206B</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>11</t>
+    <t>11
+IT-313-11003-Veaudry-IDE-217A</t>
   </si>
   <si>
     <t>20</t>
@@ -88,7 +93,8 @@
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
+    <t>4
+IT-212-04009-Gilmartin-IDE-128A</t>
   </si>
   <si>
     <t>13</t>
@@ -112,31 +118,38 @@
     <t>25</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>6
+IT-304-06008-Hogan-IDE-209</t>
+  </si>
+  <si>
+    <t>8
+IT-140-08008-Fireheart-IDE-217A</t>
+  </si>
+  <si>
+    <t>12
+IT-200-12003-Pollitt-IDE-217A</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
+    <t>4.0
+IT-212-04009-Gilmartin-IDE-128A</t>
+  </si>
+  <si>
+    <t>6.0
+IT-304-06008-Hogan-IDE-209</t>
+  </si>
+  <si>
+    <t>8.0
+IT-140-08008-Fireheart-IDE-217A</t>
   </si>
   <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>12.0</t>
+    <t>12.0
+IT-200-12003-Pollitt-IDE-217A</t>
   </si>
   <si>
     <t>nan</t>

--- a/Schedules/IT_course_schedule.xlsx
+++ b/Schedules/IT_course_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>TIME</t>
   </si>
@@ -128,31 +128,6 @@
   <si>
     <t>12
 IT-200-12003-Pollitt-IDE-217A</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>4.0
-IT-212-04009-Gilmartin-IDE-128A</t>
-  </si>
-  <si>
-    <t>6.0
-IT-304-06008-Hogan-IDE-209</t>
-  </si>
-  <si>
-    <t>8.0
-IT-140-08008-Fireheart-IDE-217A</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>12.0
-IT-200-12003-Pollitt-IDE-217A</t>
-  </si>
-  <si>
-    <t>nan</t>
   </si>
 </sst>
 </file>
@@ -553,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -573,7 +548,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -593,7 +568,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -613,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -633,7 +608,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -653,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -672,9 +647,6 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -692,9 +664,6 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
@@ -711,9 +680,6 @@
       </c>
       <c r="E10" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
